--- a/results/benchmarking/onnxruntime-python-1.14.0-host-30-10-2023.xlsx
+++ b/results/benchmarking/onnxruntime-python-1.14.0-host-30-10-2023.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dl-benchmark-vasilev\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Task type</t>
   </si>
@@ -83,6 +88,9 @@
   </si>
   <si>
     <t>mobilenetv2-12</t>
+  </si>
+  <si>
+    <t>[8, 3, 224, 224]</t>
   </si>
   <si>
     <t>resnet152-v1-7</t>
@@ -106,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,17 +200,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
+  <dxfs count="52">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
           <color auto="1"/>
         </right>
         <top style="thick">
@@ -223,7 +255,7 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
+        <right style="thick">
           <color auto="1"/>
         </right>
         <top style="thin">
@@ -256,6 +288,42 @@
     </dxf>
     <dxf>
       <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -310,12 +378,84 @@
     </dxf>
     <dxf>
       <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thick">
           <color auto="1"/>
         </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
         <top style="thick">
           <color auto="1"/>
         </top>
@@ -338,6 +478,672 @@
           <color auto="1"/>
         </top>
         <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
           <color auto="1"/>
         </bottom>
         <vertical/>
@@ -346,13 +1152,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,9 +1204,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,9 +1238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,9 +1273,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -633,96 +1449,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
@@ -742,12 +1558,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
@@ -767,12 +1583,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,646 +1608,708 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>107.262</v>
       </c>
-      <c r="G7" s="4">
-        <v>221.825</v>
-      </c>
-      <c r="H7" s="4">
-        <v>186.662</v>
-      </c>
-      <c r="I7" s="4">
-        <v>241.407</v>
-      </c>
-      <c r="J7" s="4">
-        <v>84.004</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="G7" s="3">
+        <v>221.82499999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>186.66200000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>241.40700000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>84.004000000000005</v>
+      </c>
+      <c r="K7" s="3">
         <v>155.643</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>116.526</v>
       </c>
-      <c r="G8" s="4">
-        <v>280.926</v>
-      </c>
-      <c r="H8" s="4">
-        <v>204.801</v>
-      </c>
-      <c r="I8" s="4">
-        <v>362.994</v>
-      </c>
-      <c r="J8" s="4">
-        <v>92.014</v>
-      </c>
-      <c r="K8" s="4">
-        <v>198.966</v>
+      <c r="G8" s="3">
+        <v>280.92599999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>204.80099999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>362.99400000000003</v>
+      </c>
+      <c r="J8" s="3">
+        <v>92.013999999999996</v>
+      </c>
+      <c r="K8" s="3">
+        <v>198.96600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
-        <v>54.284</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <v>54.283999999999999</v>
+      </c>
+      <c r="G9" s="3">
         <v>54.497</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>30.244</v>
       </c>
-      <c r="I9" s="4">
-        <v>26.566</v>
-      </c>
-      <c r="J9" s="4">
-        <v>37.954</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="I9" s="3">
+        <v>26.565999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>37.954000000000001</v>
+      </c>
+      <c r="K9" s="3">
         <v>39.81</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>149.076</v>
-      </c>
-      <c r="G10" s="4">
-        <v>133.128</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="F10" s="3">
+        <v>149.07599999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>133.12799999999999</v>
+      </c>
+      <c r="H10" s="3">
         <v>97.72</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>75.36</v>
       </c>
-      <c r="J10" s="4">
-        <v>85.099</v>
-      </c>
-      <c r="K10" s="4">
-        <v>92.074</v>
+      <c r="J10" s="3">
+        <v>85.099000000000004</v>
+      </c>
+      <c r="K10" s="3">
+        <v>92.073999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>148.268</v>
       </c>
-      <c r="G11" s="4">
-        <v>137.115</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="3">
+        <v>137.11500000000001</v>
+      </c>
+      <c r="H11" s="3">
         <v>107.002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>127.434</v>
       </c>
-      <c r="J11" s="4">
-        <v>90.876</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="3">
+        <v>90.876000000000005</v>
+      </c>
+      <c r="K11" s="3">
         <v>108.105</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>584.741</v>
-      </c>
-      <c r="G12" s="4">
-        <v>706.414</v>
-      </c>
-      <c r="H12" s="4">
-        <v>288.552</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="F12" s="3">
+        <v>584.74099999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>706.41399999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>288.55200000000002</v>
+      </c>
+      <c r="I12" s="3">
         <v>263.73</v>
       </c>
-      <c r="J12" s="4">
-        <v>334.929</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="3">
+        <v>334.92899999999997</v>
+      </c>
+      <c r="K12" s="3">
         <v>420.142</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
+        <v>381.125</v>
+      </c>
+      <c r="G13" s="3">
+        <v>829.07500000000005</v>
+      </c>
+      <c r="H13" s="3">
+        <v>845.62800000000004</v>
+      </c>
+      <c r="I13" s="3">
+        <v>732.86400000000003</v>
+      </c>
+      <c r="J13" s="3">
+        <v>272.51299999999998</v>
+      </c>
+      <c r="K13" s="3">
+        <v>502.17399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
-        <v>31.266</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="F14" s="3">
+        <v>31.265999999999998</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3">
         <v>42.43</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="4">
-        <v>17.851</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>24</v>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17.850999999999999</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>28.882000000000001</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="H15" s="3">
+        <v>98.533000000000001</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3">
+        <v>17.763000000000002</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F16" s="3">
         <v>369.505</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G16" s="3">
         <v>671.42</v>
       </c>
-      <c r="H14" s="4">
-        <v>128.646</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H16" s="3">
+        <v>128.64599999999999</v>
+      </c>
+      <c r="I16" s="3">
         <v>253.41</v>
       </c>
-      <c r="J14" s="4">
-        <v>363.811</v>
-      </c>
-      <c r="K14" s="4">
-        <v>523.477</v>
+      <c r="J16" s="3">
+        <v>363.81099999999998</v>
+      </c>
+      <c r="K16" s="3">
+        <v>523.47699999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
-        <v>767.912</v>
-      </c>
-      <c r="G15" s="4">
-        <v>657.228</v>
-      </c>
-      <c r="H15" s="4">
-        <v>369.437</v>
-      </c>
-      <c r="I15" s="4">
-        <v>336.629</v>
-      </c>
-      <c r="J15" s="4">
-        <v>448.361</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="F17" s="3">
+        <v>767.91200000000003</v>
+      </c>
+      <c r="G17" s="3">
+        <v>657.22799999999995</v>
+      </c>
+      <c r="H17" s="3">
+        <v>369.43700000000001</v>
+      </c>
+      <c r="I17" s="3">
+        <v>336.62900000000002</v>
+      </c>
+      <c r="J17" s="3">
+        <v>448.36099999999999</v>
+      </c>
+      <c r="K17" s="3">
         <v>471.928</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F18" s="3">
         <v>18.279</v>
       </c>
-      <c r="G16" s="4">
-        <v>33.465</v>
-      </c>
-      <c r="H16" s="4">
-        <v>46.057</v>
-      </c>
-      <c r="I16" s="4">
-        <v>99.518</v>
-      </c>
-      <c r="J16" s="4">
-        <v>11.588</v>
-      </c>
-      <c r="K16" s="4">
-        <v>21.065</v>
+      <c r="G18" s="3">
+        <v>33.465000000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>46.057000000000002</v>
+      </c>
+      <c r="I18" s="3">
+        <v>99.518000000000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11.587999999999999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>21.065000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
-        <v>59.462</v>
-      </c>
-      <c r="G17" s="4">
-        <v>101.213</v>
-      </c>
-      <c r="H17" s="4">
-        <v>81.376</v>
-      </c>
-      <c r="I17" s="4">
-        <v>113.019</v>
-      </c>
-      <c r="J17" s="4">
-        <v>44.207</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="F19" s="3">
+        <v>59.462000000000003</v>
+      </c>
+      <c r="G19" s="3">
+        <v>101.21299999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>81.376000000000005</v>
+      </c>
+      <c r="I19" s="3">
+        <v>113.01900000000001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>44.207000000000001</v>
+      </c>
+      <c r="K19" s="3">
         <v>68.875</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="D1:D6"/>
-    <mergeCell ref="E1:E6"/>
+  <mergeCells count="19">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D1:D6"/>
+    <mergeCell ref="E1:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="5">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="14">
-      <formula>LEN(TRIM(A17))&gt;0</formula>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="14">
+      <formula>LEN(TRIM(A19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="6">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="13">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A16">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12">
+  <conditionalFormatting sqref="A8:A18">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="12">
       <formula>LEN(TRIM(A8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:D17">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="10">
-      <formula>LEN(TRIM(B17))&gt;0</formula>
+  <conditionalFormatting sqref="B19:D19">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="10">
+      <formula>LEN(TRIM(B19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="2">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="9">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="7">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="16">
-      <formula>LEN(TRIM(E17))&gt;0</formula>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="16">
+      <formula>LEN(TRIM(E19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="3">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="8">
       <formula>LEN(TRIM(E6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="15">
       <formula>LEN(TRIM(E7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E16">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="11">
+  <conditionalFormatting sqref="E8:E18">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="11">
       <formula>LEN(TRIM(E8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="19">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="26">
-      <formula>LEN(TRIM(F17))&gt;0</formula>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="26">
+      <formula>LEN(TRIM(F19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="18">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="20">
       <formula>LEN(TRIM(F6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="25">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F16">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="24">
+  <conditionalFormatting sqref="F8:F18">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="24">
       <formula>LEN(TRIM(F8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="21">
       <formula>LEN(TRIM(G1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="28">
-      <formula>LEN(TRIM(G17))&gt;0</formula>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="28">
+      <formula>LEN(TRIM(G19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="17">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="22">
       <formula>LEN(TRIM(G6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(G7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G16">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="23">
+  <conditionalFormatting sqref="G8:G18">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="23">
       <formula>LEN(TRIM(G8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="31">
       <formula>LEN(TRIM(H1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="38">
-      <formula>LEN(TRIM(H17))&gt;0</formula>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="38">
+      <formula>LEN(TRIM(H19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="30">
       <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="32">
       <formula>LEN(TRIM(H6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="37">
       <formula>LEN(TRIM(H7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H16">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="36">
+  <conditionalFormatting sqref="H8:H18">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="36">
       <formula>LEN(TRIM(H8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="33">
       <formula>LEN(TRIM(I1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="40">
-      <formula>LEN(TRIM(I17))&gt;0</formula>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="40">
+      <formula>LEN(TRIM(I19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="29">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="34">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="39">
       <formula>LEN(TRIM(I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I16">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="35">
+  <conditionalFormatting sqref="I8:I18">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="35">
       <formula>LEN(TRIM(I8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="43">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="50">
-      <formula>LEN(TRIM(J17))&gt;0</formula>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="50">
+      <formula>LEN(TRIM(J19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="42">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="44">
       <formula>LEN(TRIM(J6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="49">
       <formula>LEN(TRIM(J7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J16">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="48">
+  <conditionalFormatting sqref="J8:J18">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="48">
       <formula>LEN(TRIM(J8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="45">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="52">
-      <formula>LEN(TRIM(K17))&gt;0</formula>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="52">
+      <formula>LEN(TRIM(K19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="41">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="46">
       <formula>LEN(TRIM(K6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="51">
       <formula>LEN(TRIM(K7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K16">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="47">
+  <conditionalFormatting sqref="K8:K18">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
       <formula>LEN(TRIM(K8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
